--- a/biology/Médecine/Louis_Charles_Roche/Louis_Charles_Roche.xlsx
+++ b/biology/Médecine/Louis_Charles_Roche/Louis_Charles_Roche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Charles Roche (Nevers, 27 juillet 1790 - Paris, le 4 avril 1875) est un médecin français.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il entrait comme aide médecin à l'armée de Catalogne en 1808.
-Il fit ses études médicales à Paris et fut reçu docteur en 1819. Ayant adopté les idées de François Broussais, dont il fut longtemps un des disciples les plus éclairés, il publia, sous l'inspiration des doctrines de l'illustre réformateur, plusieurs ouvrages qui contribuèrent au succès de ses doctrines ; mais, s'il fut un de ceux qui se laissèrent le plus facilement éblouir par la doctrine de l'irritation, on doit lui rendre cette justice qu'il a toujours reconnu que cette doctrine était bien loin d'être aussi efficace dans son application que dans son développement théorique. Aussi, sans méconnaître les services immenses qu'elle avait pu rendre en apprenant à localiser, les maladies plus qu'on ne l'avait fait jusqu'alors, il fut un des premiers à revenir à ce que nous sommes encore forcés d'appeler la médecine hippocratique, à l'étude pure et simple des faits, à l'expérimentation clinique, et il joua un rôle pondérateur et en quelque sorte éclectique dans la mémorable querelle[1] qui eut lieu entre Broussais et Laennec. Admis à l'Académie de médecine comme adjoint, Roche devint, en 1850, membre titulaire de cette compagnie, dont il fut pendant quelque temps président. Il fut promu officier de la Légion d'honneur le 14 août 1862. Il dut se retirer étant devenu aveugle, il vécut avec sa fille et son gendre Louis-Rémy Aubert.
+Il fit ses études médicales à Paris et fut reçu docteur en 1819. Ayant adopté les idées de François Broussais, dont il fut longtemps un des disciples les plus éclairés, il publia, sous l'inspiration des doctrines de l'illustre réformateur, plusieurs ouvrages qui contribuèrent au succès de ses doctrines ; mais, s'il fut un de ceux qui se laissèrent le plus facilement éblouir par la doctrine de l'irritation, on doit lui rendre cette justice qu'il a toujours reconnu que cette doctrine était bien loin d'être aussi efficace dans son application que dans son développement théorique. Aussi, sans méconnaître les services immenses qu'elle avait pu rendre en apprenant à localiser, les maladies plus qu'on ne l'avait fait jusqu'alors, il fut un des premiers à revenir à ce que nous sommes encore forcés d'appeler la médecine hippocratique, à l'étude pure et simple des faits, à l'expérimentation clinique, et il joua un rôle pondérateur et en quelque sorte éclectique dans la mémorable querelle qui eut lieu entre Broussais et Laennec. Admis à l'Académie de médecine comme adjoint, Roche devint, en 1850, membre titulaire de cette compagnie, dont il fut pendant quelque temps président. Il fut promu officier de la Légion d'honneur le 14 août 1862. Il dut se retirer étant devenu aveugle, il vécut avec sa fille et son gendre Louis-Rémy Aubert.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les plus remarquables des ouvrages de Roche sont les suivants :
 Sur les phlegmasies du système fibreux des articulations (Paris, 1819, in-4°) ;
